--- a/demo/data/CC_BP_SUPPLIER_DEMO.XLSX
+++ b/demo/data/CC_BP_SUPPLIER_DEMO.XLSX
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyWorks\NiurenZhu\ibas-training\demo\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Niuren.Zhu/Codes/Niuren.Zhu/ibas-training/demo/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590DA787-9C91-42E4-A152-EB6BC54B69BA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E61CA17F-ACA3-3743-AFF8-679A7BB99F1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1760" yWindow="4840" windowWidth="21600" windowHeight="10900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="供应商" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
           <rPr>
             <sz val="11"/>
             <color indexed="8"/>
-            <rFont val="等线"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
@@ -47,7 +47,7 @@
           <rPr>
             <sz val="11"/>
             <color indexed="8"/>
-            <rFont val="等线"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
@@ -63,7 +63,7 @@
           <rPr>
             <sz val="11"/>
             <color indexed="8"/>
-            <rFont val="等线"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
@@ -79,7 +79,7 @@
           <rPr>
             <sz val="11"/>
             <color indexed="8"/>
-            <rFont val="等线"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
@@ -95,7 +95,7 @@
           <rPr>
             <sz val="11"/>
             <color indexed="8"/>
-            <rFont val="等线"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
@@ -111,7 +111,7 @@
           <rPr>
             <sz val="11"/>
             <color indexed="8"/>
-            <rFont val="等线"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
@@ -127,7 +127,7 @@
           <rPr>
             <sz val="11"/>
             <color indexed="8"/>
-            <rFont val="等线"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
@@ -143,7 +143,7 @@
           <rPr>
             <sz val="11"/>
             <color indexed="8"/>
-            <rFont val="等线"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
@@ -159,7 +159,7 @@
           <rPr>
             <sz val="11"/>
             <color indexed="8"/>
-            <rFont val="等线"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
@@ -175,7 +175,7 @@
           <rPr>
             <sz val="11"/>
             <color indexed="8"/>
-            <rFont val="等线"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
@@ -191,7 +191,7 @@
           <rPr>
             <sz val="11"/>
             <color indexed="8"/>
-            <rFont val="等线"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
@@ -207,7 +207,7 @@
           <rPr>
             <sz val="11"/>
             <color indexed="8"/>
-            <rFont val="等线"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
@@ -223,7 +223,7 @@
           <rPr>
             <sz val="11"/>
             <color indexed="8"/>
-            <rFont val="等线"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
@@ -239,7 +239,7 @@
           <rPr>
             <sz val="11"/>
             <color indexed="8"/>
-            <rFont val="等线"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
@@ -255,7 +255,7 @@
           <rPr>
             <sz val="11"/>
             <color indexed="8"/>
-            <rFont val="等线"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
@@ -271,7 +271,7 @@
           <rPr>
             <sz val="11"/>
             <color indexed="8"/>
-            <rFont val="等线"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
@@ -287,7 +287,7 @@
           <rPr>
             <sz val="11"/>
             <color indexed="8"/>
-            <rFont val="等线"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
@@ -303,7 +303,7 @@
           <rPr>
             <sz val="11"/>
             <color indexed="8"/>
-            <rFont val="等线"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
@@ -491,7 +491,7 @@
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -500,20 +500,23 @@
       <i/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -556,24 +559,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -586,7 +578,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -602,7 +594,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -902,55 +894,55 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:P1"/>
+      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
     </row>
     <row r="2" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
     </row>
     <row r="3" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -1003,324 +995,340 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="3" t="s">
+      <c r="C4" s="2">
+        <v>101</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="5">
-        <v>0</v>
-      </c>
-      <c r="G4" s="6">
-        <v>0</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="13" t="s">
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="13" t="s">
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M4" s="10"/>
-      <c r="N4" s="11">
-        <v>0</v>
-      </c>
-      <c r="O4" s="13" t="s">
+      <c r="M4" s="2"/>
+      <c r="N4" s="2">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="P4" s="12"/>
+      <c r="P4" s="2"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13" t="s">
+      <c r="C5" s="2">
+        <v>101</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="13">
-        <v>0</v>
-      </c>
-      <c r="G5" s="13">
-        <v>0</v>
-      </c>
-      <c r="H5" s="13">
-        <v>0</v>
-      </c>
-      <c r="I5" s="13" t="s">
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13" t="s">
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13">
-        <v>0</v>
-      </c>
-      <c r="O5" s="13" t="s">
+      <c r="M5" s="2"/>
+      <c r="N5" s="2">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="P5" s="13"/>
+      <c r="P5" s="2"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13" t="s">
+      <c r="C6" s="2">
+        <v>101</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="13">
-        <v>0</v>
-      </c>
-      <c r="G6" s="13">
-        <v>0</v>
-      </c>
-      <c r="H6" s="13">
-        <v>0</v>
-      </c>
-      <c r="I6" s="13" t="s">
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13" t="s">
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13">
-        <v>0</v>
-      </c>
-      <c r="O6" s="13" t="s">
+      <c r="M6" s="2"/>
+      <c r="N6" s="2">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="P6" s="13"/>
+      <c r="P6" s="2"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13" t="s">
+      <c r="C7" s="2">
+        <v>101</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="13">
-        <v>0</v>
-      </c>
-      <c r="G7" s="13">
-        <v>0</v>
-      </c>
-      <c r="H7" s="13">
-        <v>0</v>
-      </c>
-      <c r="I7" s="13" t="s">
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13" t="s">
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13">
-        <v>0</v>
-      </c>
-      <c r="O7" s="13" t="s">
+      <c r="M7" s="2"/>
+      <c r="N7" s="2">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="P7" s="13"/>
+      <c r="P7" s="2"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13" t="s">
+      <c r="C8" s="2">
+        <v>101</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="13">
-        <v>0</v>
-      </c>
-      <c r="G8" s="13">
-        <v>0</v>
-      </c>
-      <c r="H8" s="13">
-        <v>0</v>
-      </c>
-      <c r="I8" s="13" t="s">
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13" t="s">
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13">
-        <v>0</v>
-      </c>
-      <c r="O8" s="13" t="s">
+      <c r="M8" s="2"/>
+      <c r="N8" s="2">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="P8" s="13"/>
+      <c r="P8" s="2"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13" t="s">
+      <c r="C9" s="2">
+        <v>101</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="13">
-        <v>0</v>
-      </c>
-      <c r="G9" s="13">
-        <v>0</v>
-      </c>
-      <c r="H9" s="13">
-        <v>0</v>
-      </c>
-      <c r="I9" s="13" t="s">
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13" t="s">
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13">
-        <v>0</v>
-      </c>
-      <c r="O9" s="13" t="s">
+      <c r="M9" s="2"/>
+      <c r="N9" s="2">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="P9" s="13"/>
+      <c r="P9" s="2"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13" t="s">
+      <c r="C10" s="2">
+        <v>101</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="13">
-        <v>0</v>
-      </c>
-      <c r="G10" s="13">
-        <v>0</v>
-      </c>
-      <c r="H10" s="13">
-        <v>0</v>
-      </c>
-      <c r="I10" s="13" t="s">
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13" t="s">
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13">
-        <v>0</v>
-      </c>
-      <c r="O10" s="13" t="s">
+      <c r="M10" s="2"/>
+      <c r="N10" s="2">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="P10" s="13"/>
+      <c r="P10" s="2"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13" t="s">
+      <c r="C11" s="2">
+        <v>101</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="13">
-        <v>0</v>
-      </c>
-      <c r="G11" s="13">
-        <v>0</v>
-      </c>
-      <c r="H11" s="13">
-        <v>0</v>
-      </c>
-      <c r="I11" s="13" t="s">
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13" t="s">
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13">
-        <v>0</v>
-      </c>
-      <c r="O11" s="13" t="s">
+      <c r="M11" s="2"/>
+      <c r="N11" s="2">
+        <v>0</v>
+      </c>
+      <c r="O11" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="P11" s="13"/>
+      <c r="P11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
